--- a/controllers/sales_data.xlsx
+++ b/controllers/sales_data.xlsx
@@ -52,7 +52,7 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>Mon Apr 08 2024</t>
+    <t>Tue Apr 09 2024</t>
   </si>
   <si>
     <t>Credit Card</t>

--- a/controllers/sales_data.xlsx
+++ b/controllers/sales_data.xlsx
@@ -52,7 +52,7 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>Tue Apr 09 2024</t>
+    <t>Thu Apr 11 2024</t>
   </si>
   <si>
     <t>Credit Card</t>
